--- a/Billings Model.xlsx
+++ b/Billings Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Dropbox\Employment\Journal Submissions\EMA Compensable billing in the Emergency Department – an analysis of efficiency of a manual system of entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D717F796-36C4-4152-A946-5384FFA60E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AEAD3A-9509-464A-9282-D895CEFDF932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,6 +485,16 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
@@ -495,16 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +605,7 @@
                   <a14:compatExt spid="_x0000_s2139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721FA7A8-A78D-4CC9-8929-29CEB32CCFB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -626,23 +626,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -975,10 +962,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9CB7C3-BB08-4C90-A1C7-1CECAE72C311}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B4:AO37"/>
+  <dimension ref="B5:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -993,26 +980,20 @@
     <col min="42" max="42" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="G4">
-        <f ca="1">_xll.VoseModPERT(0,2,4,2)</f>
-        <v>0.99952498627349662</v>
-      </c>
-    </row>
     <row r="5" spans="2:41" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:41" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:41" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C7" s="24"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1124,7 @@
       </c>
       <c r="G8" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C8)+_xll.VosePERT($D8,$E8,$F8)</f>
-        <v>1.0234522935677517</v>
+        <v>1.0112392243041954</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -1153,123 +1134,123 @@
       </c>
       <c r="K8" s="18">
         <f ca="1">J8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>94206.068593939373</v>
+        <v>94569.933923193254</v>
       </c>
       <c r="L8" s="18">
         <f ca="1">K8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>97968.108636705161</v>
+        <v>96341.738990990649</v>
       </c>
       <c r="M8" s="18">
         <f ca="1">L8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>98748.533967657873</v>
+        <v>99017.238790642848</v>
       </c>
       <c r="N8" s="18">
         <f ca="1">M8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>100930.38626756729</v>
+        <v>101504.96149642931</v>
       </c>
       <c r="O8" s="18">
         <f ca="1">N8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>103476.39943774731</v>
+        <v>104778.67065513434</v>
       </c>
       <c r="P8" s="18">
         <f ca="1">O8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>106138.77694508299</v>
+        <v>107893.50927910404</v>
       </c>
       <c r="Q8" s="18">
         <f ca="1">P8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>109042.07790803286</v>
+        <v>110333.01882140484</v>
       </c>
       <c r="R8" s="18">
         <f ca="1">Q8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>111358.33856899044</v>
+        <v>115567.54829333386</v>
       </c>
       <c r="S8" s="18">
         <f ca="1">R8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>116049.66502271676</v>
+        <v>118171.09598765871</v>
       </c>
       <c r="T8" s="18">
         <f ca="1">S8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>120802.46961223382</v>
+        <v>120495.14574832282</v>
       </c>
       <c r="U8" s="18">
         <f ca="1">T8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>123716.63736344088</v>
+        <v>124015.13623799729</v>
       </c>
       <c r="V8" s="18">
         <f ca="1">U8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>128977.60914363255</v>
+        <v>128722.43953033928</v>
       </c>
       <c r="W8" s="18">
         <f ca="1">V8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>132862.6417205754</v>
+        <v>132266.89992298844</v>
       </c>
       <c r="X8" s="18">
         <f ca="1">W8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>135158.45713392441</v>
+        <v>137572.44001651456</v>
       </c>
       <c r="Y8" s="18">
         <f ca="1">X8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>137966.28092620306</v>
+        <v>142311.75885460878</v>
       </c>
       <c r="Z8" s="18">
         <f ca="1">Y8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>140519.91350957259</v>
+        <v>147398.33789967836</v>
       </c>
       <c r="AA8" s="18">
         <f ca="1">Z8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>144469.88375168364</v>
+        <v>150085.0586509422</v>
       </c>
       <c r="AB8" s="18">
         <f ca="1">AA8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>148154.54502460675</v>
+        <v>153862.15406416167</v>
       </c>
       <c r="AC8" s="18">
         <f ca="1">AB8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>150516.37121271496</v>
+        <v>155692.75807679366</v>
       </c>
       <c r="AD8" s="18">
         <f ca="1">AC8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>153484.28067662189</v>
+        <v>158863.30376334299</v>
       </c>
       <c r="AE8" s="18">
         <f ca="1">AD8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>158273.29183115266</v>
+        <v>163250.29867841044</v>
       </c>
       <c r="AF8" s="18">
         <f ca="1">AE8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>162716.07122018634</v>
+        <v>168396.47182174798</v>
       </c>
       <c r="AG8" s="18">
         <f ca="1">AF8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>165841.63726939037</v>
+        <v>173669.13798039505</v>
       </c>
       <c r="AH8" s="18">
         <f ca="1">AG8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>169164.94502445977</v>
+        <v>176920.8257932142</v>
       </c>
       <c r="AI8" s="18">
         <f ca="1">AH8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>172277.53615342057</v>
+        <v>183133.04863731438</v>
       </c>
       <c r="AJ8" s="18">
         <f ca="1">AI8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>176749.35823934744</v>
+        <v>192777.66704682264</v>
       </c>
       <c r="AK8" s="18">
         <f ca="1">AJ8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>180544.39025502084</v>
+        <v>199207.6011916133</v>
       </c>
       <c r="AL8" s="18">
         <f ca="1">AK8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>181917.18914005934</v>
+        <v>205700.62197340452</v>
       </c>
       <c r="AM8" s="18">
         <f ca="1">AL8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>184099.5769256948</v>
+        <v>212583.70340230927</v>
       </c>
       <c r="AN8" s="18">
         <f ca="1">AM8*_xll.VosePERT($D$8,$E$8,$F$8)</f>
-        <v>187858.86445238598</v>
+        <v>213926.09428982998</v>
       </c>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.35">
@@ -1290,7 +1271,7 @@
       </c>
       <c r="G9" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C9)+_xll.VosePERT($D9,$E9,$F9)</f>
-        <v>3.7665253406408417E-2</v>
+        <v>3.6076562203290211E-2</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1300,123 +1281,123 @@
       </c>
       <c r="K9" s="18">
         <f ca="1">K8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>3360.7736312020697</v>
+        <v>3417.5218621454046</v>
       </c>
       <c r="L9" s="18">
         <f ca="1">L8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>3428.3116169541913</v>
+        <v>3436.6741999086703</v>
       </c>
       <c r="M9" s="18">
         <f ca="1">M8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>3448.3867719647192</v>
+        <v>3483.3866176944434</v>
       </c>
       <c r="N9" s="18">
         <f ca="1">N8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>3632.8300677456627</v>
+        <v>3512.0391077811178</v>
       </c>
       <c r="O9" s="18">
         <f ca="1">O8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>3803.8103265009754</v>
+        <v>3561.1483660788767</v>
       </c>
       <c r="P9" s="18">
         <f ca="1">P8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4068.9989130786876</v>
+        <v>3619.1414239279866</v>
       </c>
       <c r="Q9" s="18">
         <f ca="1">Q8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>3700.1658831266818</v>
+        <v>3969.2258485039902</v>
       </c>
       <c r="R9" s="18">
         <f ca="1">R8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4142.4276428232324</v>
+        <v>4231.094322612108</v>
       </c>
       <c r="S9" s="18">
         <f ca="1">S8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4237.0629262238226</v>
+        <v>4463.6255128282355</v>
       </c>
       <c r="T9" s="18">
         <f ca="1">T8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4455.089004850719</v>
+        <v>4322.2991178220645</v>
       </c>
       <c r="U9" s="18">
         <f ca="1">U8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4632.2428998978949</v>
+        <v>4282.979801784797</v>
       </c>
       <c r="V9" s="18">
         <f ca="1">V8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4300.0295713702981</v>
+        <v>4944.0523779509876</v>
       </c>
       <c r="W9" s="18">
         <f ca="1">W8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4448.3794429307263</v>
+        <v>4641.3245626786511</v>
       </c>
       <c r="X9" s="18">
         <f ca="1">X8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5017.6698094232706</v>
+        <v>4790.5717313887699</v>
       </c>
       <c r="Y9" s="18">
         <f ca="1">Y8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>4784.7927322248643</v>
+        <v>5232.5182919025601</v>
       </c>
       <c r="Z9" s="18">
         <f ca="1">Z8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5071.6695307633327</v>
+        <v>5330.107213086947</v>
       </c>
       <c r="AA9" s="18">
         <f ca="1">AA8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5537.5236848431132</v>
+        <v>5399.8515040964176</v>
       </c>
       <c r="AB9" s="18">
         <f ca="1">AB8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5239.728632176666</v>
+        <v>5333.0464656601198</v>
       </c>
       <c r="AC9" s="18">
         <f ca="1">AC8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5014.5226487591417</v>
+        <v>5874.0904414320112</v>
       </c>
       <c r="AD9" s="18">
         <f ca="1">AD8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5588.8999522731883</v>
+        <v>5887.2765224345567</v>
       </c>
       <c r="AE9" s="18">
         <f ca="1">AE8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5791.1139976209924</v>
+        <v>5772.5272200197423</v>
       </c>
       <c r="AF9" s="18">
         <f ca="1">AF8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5837.5111358195063</v>
+        <v>5943.7657492243088</v>
       </c>
       <c r="AG9" s="18">
         <f ca="1">AG8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5692.8719577813526</v>
+        <v>6628.5113771118331</v>
       </c>
       <c r="AH9" s="18">
         <f ca="1">AH8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>5819.6408636526066</v>
+        <v>6362.9392224931553</v>
       </c>
       <c r="AI9" s="18">
         <f ca="1">AI8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>6105.199571942856</v>
+        <v>6962.9377285518094</v>
       </c>
       <c r="AJ9" s="18">
         <f ca="1">AJ8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>6288.423771948469</v>
+        <v>6678.5798897298919</v>
       </c>
       <c r="AK9" s="18">
         <f ca="1">AK8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>7040.4896552803148</v>
+        <v>7384.2832958113167</v>
       </c>
       <c r="AL9" s="18">
         <f ca="1">AL8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>6167.8065919051951</v>
+        <v>6881.2947276559989</v>
       </c>
       <c r="AM9" s="18">
         <f ca="1">AM8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>6443.6537463852055</v>
+        <v>7771.3626364420552</v>
       </c>
       <c r="AN9" s="18">
         <f ca="1">AN8*_xll.VosePERT($D$9,$E$9,$F$9)</f>
-        <v>6732.826825515026</v>
+        <v>7070.2989785285754</v>
       </c>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.35">
@@ -1437,7 +1418,7 @@
       </c>
       <c r="G10" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C10)+_xll.VosePERT($D10,$E10,$F10)</f>
-        <v>20.798785428930508</v>
+        <v>20.800428644678419</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -1448,123 +1429,123 @@
       </c>
       <c r="K10" s="19">
         <f ca="1">K9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>72590.364776405695</v>
+        <v>72603.689956615926</v>
       </c>
       <c r="L10" s="19">
         <f ca="1">L9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>78134.803472864005</v>
+        <v>78241.031943186623</v>
       </c>
       <c r="M10" s="19">
         <f ca="1">M9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>78659.560070445557</v>
+        <v>76957.027237424059</v>
       </c>
       <c r="N10" s="19">
         <f ca="1">N9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>80044.009290791029</v>
+        <v>74525.093598017789</v>
       </c>
       <c r="O10" s="19">
         <f ca="1">O9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>79637.459080546891</v>
+        <v>76790.462518940418</v>
       </c>
       <c r="P10" s="19">
         <f ca="1">P9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>87472.749508954716</v>
+        <v>81460.150338124367</v>
       </c>
       <c r="Q10" s="19">
         <f ca="1">Q9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>78325.997851565146</v>
+        <v>91831.71752812319</v>
       </c>
       <c r="R10" s="19">
         <f ca="1">R9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>95989.781499324396</v>
+        <v>94906.25059915267</v>
       </c>
       <c r="S10" s="19">
         <f ca="1">S9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>87888.971856105083</v>
+        <v>95075.691512444464</v>
       </c>
       <c r="T10" s="19">
         <f ca="1">T9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>97806.267353886797</v>
+        <v>99359.705588941535</v>
       </c>
       <c r="U10" s="19">
         <f ca="1">U9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>101566.18242979396</v>
+        <v>89276.874121165107</v>
       </c>
       <c r="V10" s="19">
         <f ca="1">V9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>97742.184921352571</v>
+        <v>111455.70420520588</v>
       </c>
       <c r="W10" s="19">
         <f ca="1">W9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>94120.399191699718</v>
+        <v>103673.23238872328</v>
       </c>
       <c r="X10" s="19">
         <f ca="1">X9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>113220.2241738288</v>
+        <v>106862.29379720257</v>
       </c>
       <c r="Y10" s="19">
         <f ca="1">Y9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>110439.2391969825</v>
+        <v>110692.06718615862</v>
       </c>
       <c r="Z10" s="19">
         <f ca="1">Z9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>109808.91981769963</v>
+        <v>112387.16591977965</v>
       </c>
       <c r="AA10" s="19">
         <f ca="1">AA9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>115056.53511659168</v>
+        <v>124569.64421245283</v>
       </c>
       <c r="AB10" s="19">
         <f ca="1">AB9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>114740.65015358904</v>
+        <v>112756.35996048071</v>
       </c>
       <c r="AC10" s="19">
         <f ca="1">AC9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>109397.24538606357</v>
+        <v>126552.89462155152</v>
       </c>
       <c r="AD10" s="19">
         <f ca="1">AD9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>122422.62053417796</v>
+        <v>124235.04249608402</v>
       </c>
       <c r="AE10" s="19">
         <f ca="1">AE9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>124369.79602887043</v>
+        <v>127673.244422175</v>
       </c>
       <c r="AF10" s="19">
         <f ca="1">AF9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>132879.97519324103</v>
+        <v>121068.15181530299</v>
       </c>
       <c r="AG10" s="19">
         <f ca="1">AG9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>118567.02087764353</v>
+        <v>139481.42642996676</v>
       </c>
       <c r="AH10" s="19">
         <f ca="1">AH9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>125499.26624838015</v>
+        <v>145206.27860686189</v>
       </c>
       <c r="AI10" s="19">
         <f ca="1">AI9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>136322.96941049278</v>
+        <v>154805.7232015995</v>
       </c>
       <c r="AJ10" s="19">
         <f ca="1">AJ9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>133847.58669189981</v>
+        <v>149884.00940813991</v>
       </c>
       <c r="AK10" s="19">
         <f ca="1">AK9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>159128.79696658207</v>
+        <v>159555.08654024234</v>
       </c>
       <c r="AL10" s="19">
         <f ca="1">AL9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>138815.3868122467</v>
+        <v>144452.83507870691</v>
       </c>
       <c r="AM10" s="19">
         <f ca="1">AM9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>150461.28506851048</v>
+        <v>173247.56936419255</v>
       </c>
       <c r="AN10" s="19">
         <f ca="1">AN9*_xll.VosePERT($D$10,$E$10,$F$10)</f>
-        <v>148889.8303709107</v>
+        <v>159353.74230344919</v>
       </c>
       <c r="AO10" s="20"/>
     </row>
@@ -1586,7 +1567,7 @@
       </c>
       <c r="G11" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C11)+_xll.VosePERT($D11,$E11,$F11)</f>
-        <v>95.483201120680278</v>
+        <v>89.456128412546462</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1597,123 +1578,123 @@
       </c>
       <c r="K11" s="21">
         <f ca="1">K10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>66709.034088945831</v>
+        <v>62936.333304070489</v>
       </c>
       <c r="L11" s="21">
         <f ca="1">L10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>69480.584231145942</v>
+        <v>75320.752296731327</v>
       </c>
       <c r="M11" s="21">
         <f ca="1">M10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>71300.005081351104</v>
+        <v>69002.553073058938</v>
       </c>
       <c r="N11" s="21">
         <f ca="1">N10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>66989.65935362762</v>
+        <v>68131.816602957711</v>
       </c>
       <c r="O11" s="21">
         <f ca="1">O10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>74546.624563200588</v>
+        <v>64701.278066979161</v>
       </c>
       <c r="P11" s="21">
         <f ca="1">P10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>80613.216635657285</v>
+        <v>72704.949836411557</v>
       </c>
       <c r="Q11" s="21">
         <f ca="1">Q10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>69345.408165147848</v>
+        <v>80755.042914569392</v>
       </c>
       <c r="R11" s="21">
         <f ca="1">R10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>88019.851762460021</v>
+        <v>83000.563973693192</v>
       </c>
       <c r="S11" s="21">
         <f ca="1">S10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>74928.327778925785</v>
+        <v>89275.514336091801</v>
       </c>
       <c r="T11" s="21">
         <f ca="1">T10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>91951.967303135694</v>
+        <v>92142.61539904197</v>
       </c>
       <c r="U11" s="21">
         <f ca="1">U10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>91897.546352856618</v>
+        <v>84463.410302416072</v>
       </c>
       <c r="V11" s="21">
         <f ca="1">V10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>89232.110986503496</v>
+        <v>106157.12164181171</v>
       </c>
       <c r="W11" s="21">
         <f ca="1">W10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>86938.672026371467</v>
+        <v>94151.720918627529</v>
       </c>
       <c r="X11" s="21">
         <f ca="1">X10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>102130.11579168167</v>
+        <v>99770.966979208446</v>
       </c>
       <c r="Y11" s="21">
         <f ca="1">Y10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>101117.63032192504</v>
+        <v>98282.653908915003</v>
       </c>
       <c r="Z11" s="21">
         <f ca="1">Z10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>96532.476500846358</v>
+        <v>97536.595373201693</v>
       </c>
       <c r="AA11" s="21">
         <f ca="1">AA10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>111061.07139979124</v>
+        <v>109444.04382430523</v>
       </c>
       <c r="AB11" s="21">
         <f ca="1">AB10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>110881.88578527476</v>
+        <v>100583.96052068777</v>
       </c>
       <c r="AC11" s="21">
         <f ca="1">AC10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>92080.711984658294</v>
+        <v>118006.28335059376</v>
       </c>
       <c r="AD11" s="21">
         <f ca="1">AD10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>103410.74968076173</v>
+        <v>113385.93493858725</v>
       </c>
       <c r="AE11" s="21">
         <f ca="1">AE10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>106050.63157646939</v>
+        <v>113597.43852967897</v>
       </c>
       <c r="AF11" s="21">
         <f ca="1">AF10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>121910.09288552123</v>
+        <v>106413.13370998815</v>
       </c>
       <c r="AG11" s="21">
         <f ca="1">AG10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>103751.75477622554</v>
+        <v>127533.11896218665</v>
       </c>
       <c r="AH11" s="21">
         <f ca="1">AH10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>108027.6120566983</v>
+        <v>139755.80688345045</v>
       </c>
       <c r="AI11" s="21">
         <f ca="1">AI10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>123237.49626443229</v>
+        <v>135665.77556848314</v>
       </c>
       <c r="AJ11" s="21">
         <f ca="1">AJ10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>126339.22977959702</v>
+        <v>133854.4929132681</v>
       </c>
       <c r="AK11" s="21">
         <f ca="1">AK10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>139131.1125722733</v>
+        <v>145914.38594188649</v>
       </c>
       <c r="AL11" s="21">
         <f ca="1">AL10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>124350.83646499061</v>
+        <v>132367.28068790401</v>
       </c>
       <c r="AM11" s="21">
         <f ca="1">AM10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>138876.74253064042</v>
+        <v>159911.71493463521</v>
       </c>
       <c r="AN11" s="21">
         <f ca="1">AN10*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>138950.34605585522</v>
+        <v>155269.17860309855</v>
       </c>
       <c r="AO11" s="20"/>
     </row>
@@ -1738,7 +1719,7 @@
       </c>
       <c r="G12" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C12)+_xll.VosePERT($D12,$E12,$F12)</f>
-        <v>2.6762656380169045E-2</v>
+        <v>2.6855582162218124E-2</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
@@ -1749,123 +1730,123 @@
       </c>
       <c r="K12" s="19">
         <f ca="1">K9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>2688.7230581849767</v>
+        <v>2500.2753757856153</v>
       </c>
       <c r="L12" s="19">
         <f ca="1">L9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>2707.5892665968181</v>
+        <v>2714.9026067276827</v>
       </c>
       <c r="M12" s="19">
         <f ca="1">M9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>2849.2743879194941</v>
+        <v>2606.6896726076739</v>
       </c>
       <c r="N12" s="19">
         <f ca="1">N9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>2714.1366754902892</v>
+        <v>2733.3808507306749</v>
       </c>
       <c r="O12" s="19">
         <f ca="1">O9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>2874.2841494654617</v>
+        <v>2878.8919781543386</v>
       </c>
       <c r="P12" s="19">
         <f ca="1">P9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3127.9913910589894</v>
+        <v>2913.1852278226252</v>
       </c>
       <c r="Q12" s="19">
         <f ca="1">Q9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>2956.392296799153</v>
+        <v>3278.7607613179439</v>
       </c>
       <c r="R12" s="19">
         <f ca="1">R9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3172.3442957769753</v>
+        <v>3248.0588341450161</v>
       </c>
       <c r="S12" s="19">
         <f ca="1">S9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3237.4071749718801</v>
+        <v>3720.6106693692586</v>
       </c>
       <c r="T12" s="19">
         <f ca="1">T9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3447.1821516925938</v>
+        <v>3168.404054203696</v>
       </c>
       <c r="U12" s="19">
         <f ca="1">U9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3465.0416262444355</v>
+        <v>3401.565591406114</v>
       </c>
       <c r="V12" s="19">
         <f ca="1">V9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3381.7957994883805</v>
+        <v>3663.9625074804926</v>
       </c>
       <c r="W12" s="19">
         <f ca="1">W9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3577.4954747114771</v>
+        <v>3713.3021589169016</v>
       </c>
       <c r="X12" s="19">
         <f ca="1">X9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4082.439358578662</v>
+        <v>3629.77495521622</v>
       </c>
       <c r="Y12" s="19">
         <f ca="1">Y9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3636.712794865176</v>
+        <v>3939.3642065857994</v>
       </c>
       <c r="Z12" s="19">
         <f ca="1">Z9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3946.7342327910847</v>
+        <v>4127.6692215372605</v>
       </c>
       <c r="AA12" s="19">
         <f ca="1">AA9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4123.2813416106019</v>
+        <v>4524.6895353197397</v>
       </c>
       <c r="AB12" s="19">
         <f ca="1">AB9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3975.1398727743685</v>
+        <v>4244.6153707819576</v>
       </c>
       <c r="AC12" s="19">
         <f ca="1">AC9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>3887.6896123691258</v>
+        <v>4650.7645924089857</v>
       </c>
       <c r="AD12" s="19">
         <f ca="1">AD9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4478.6307659852691</v>
+        <v>4304.1017462246236</v>
       </c>
       <c r="AE12" s="19">
         <f ca="1">AE9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4620.065120115717</v>
+        <v>4470.6825192038996</v>
       </c>
       <c r="AF12" s="19">
         <f ca="1">AF9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4570.8745134767914</v>
+        <v>4616.9161171685664</v>
       </c>
       <c r="AG12" s="19">
         <f ca="1">AG9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4662.0838300575988</v>
+        <v>4984.5745738986652</v>
       </c>
       <c r="AH12" s="19">
         <f ca="1">AH9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4305.1519834322908</v>
+        <v>4823.3200352099257</v>
       </c>
       <c r="AI12" s="19">
         <f ca="1">AI9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4579.7109788747348</v>
+        <v>5499.8507094134156</v>
       </c>
       <c r="AJ12" s="19">
         <f ca="1">AJ9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>5228.294920807085</v>
+        <v>5056.9830472454059</v>
       </c>
       <c r="AK12" s="19">
         <f ca="1">AK9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>5800.9847898496164</v>
+        <v>5925.0930276294766</v>
       </c>
       <c r="AL12" s="19">
         <f ca="1">AL9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>5062.5877365617771</v>
+        <v>5694.8769757787913</v>
       </c>
       <c r="AM12" s="19">
         <f ca="1">AM9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>4716.0956786697952</v>
+        <v>5876.4969628663657</v>
       </c>
       <c r="AN12" s="19">
         <f ca="1">AN9*_xll.VosePERT($D12,$E12,$F12)*30</f>
-        <v>5229.4649021439982</v>
+        <v>5237.4581135513517</v>
       </c>
       <c r="AO12" s="20"/>
     </row>
@@ -1884,127 +1865,127 @@
       </c>
       <c r="K13" s="21">
         <f t="shared" ref="K13" ca="1" si="0">K11-K12</f>
-        <v>64020.311030760851</v>
+        <v>60436.057928284878</v>
       </c>
       <c r="L13" s="21">
         <f t="shared" ref="L13:AN13" ca="1" si="1">L11-L12</f>
-        <v>66772.994964549129</v>
+        <v>72605.849690003641</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>68450.730693431615</v>
+        <v>66395.863400451257</v>
       </c>
       <c r="N13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>64275.522678137328</v>
+        <v>65398.435752227037</v>
       </c>
       <c r="O13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>71672.340413735132</v>
+        <v>61822.386088824824</v>
       </c>
       <c r="P13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>77485.225244598289</v>
+        <v>69791.764608588928</v>
       </c>
       <c r="Q13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>66389.015868348695</v>
+        <v>77476.28215325145</v>
       </c>
       <c r="R13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>84847.507466683048</v>
+        <v>79752.505139548171</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>71690.920603953899</v>
+        <v>85554.903666722545</v>
       </c>
       <c r="T13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>88504.785151443095</v>
+        <v>88974.211344838273</v>
       </c>
       <c r="U13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>88432.504726612184</v>
+        <v>81061.844711009951</v>
       </c>
       <c r="V13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>85850.31518701512</v>
+        <v>102493.15913433122</v>
       </c>
       <c r="W13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>83361.176551659984</v>
+        <v>90438.418759710621</v>
       </c>
       <c r="X13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>98047.676433103014</v>
+        <v>96141.192023992233</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>97480.917527059864</v>
+        <v>94343.289702329203</v>
       </c>
       <c r="Z13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>92585.74226805527</v>
+        <v>93408.926151664433</v>
       </c>
       <c r="AA13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>106937.79005818063</v>
+        <v>104919.35428898549</v>
       </c>
       <c r="AB13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>106906.7459125004</v>
+        <v>96339.345149905814</v>
       </c>
       <c r="AC13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>88193.022372289168</v>
+        <v>113355.51875818477</v>
       </c>
       <c r="AD13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>98932.118914776453</v>
+        <v>109081.83319236262</v>
       </c>
       <c r="AE13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>101430.56645635367</v>
+        <v>109126.75601047507</v>
       </c>
       <c r="AF13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>117339.21837204443</v>
+        <v>101796.21759281958</v>
       </c>
       <c r="AG13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>99089.670946167942</v>
+        <v>122548.54438828799</v>
       </c>
       <c r="AH13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>103722.460073266</v>
+        <v>134932.48684824051</v>
       </c>
       <c r="AI13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>118657.78528555756</v>
+        <v>130165.92485906972</v>
       </c>
       <c r="AJ13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>121110.93485878994</v>
+        <v>128797.50986602269</v>
       </c>
       <c r="AK13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>133330.12778242369</v>
+        <v>139989.29291425701</v>
       </c>
       <c r="AL13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>119288.24872842884</v>
+        <v>126672.40371212522</v>
       </c>
       <c r="AM13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>134160.64685197061</v>
+        <v>154035.21797176884</v>
       </c>
       <c r="AN13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>133720.88115371123</v>
+        <v>150031.72048954721</v>
       </c>
       <c r="AO13" s="19">
         <f ca="1">_xll.VoseOutput()+J13+NPV(0.03,K13:AN13)</f>
-        <v>1835607.6348781376</v>
+        <v>1912422.6277777837</v>
       </c>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.35">
@@ -2029,7 +2010,7 @@
       </c>
       <c r="G15" s="8">
         <f ca="1">_xll.VosePERT(D15,E15,F15)</f>
-        <v>2.3406967974420347E-2</v>
+        <v>1.9551661078799815E-2</v>
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.35">
@@ -2090,27 +2071,27 @@
       </c>
     </row>
     <row r="21" spans="2:41" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="23" spans="2:41" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:41" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:41" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C25" s="24"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2222,7 @@
       </c>
       <c r="G26" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C26)+_xll.VosePERT($D26,$E26,$F26)</f>
-        <v>1.0102256625127379</v>
+        <v>1.0141616959049724</v>
       </c>
       <c r="I26" t="s">
         <v>9</v>
@@ -2251,123 +2232,123 @@
       </c>
       <c r="K26" s="18">
         <f ca="1">J26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>93430.751894850764</v>
+        <v>94246.395006274819</v>
       </c>
       <c r="L26" s="18">
         <f ca="1">K26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>95881.55851796073</v>
+        <v>95752.071904192751</v>
       </c>
       <c r="M26" s="18">
         <f ca="1">L26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>99587.304345733195</v>
+        <v>98306.304270587585</v>
       </c>
       <c r="N26" s="18">
         <f ca="1">M26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>103401.25897792532</v>
+        <v>100788.61130345332</v>
       </c>
       <c r="O26" s="18">
         <f ca="1">N26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>105684.14915022277</v>
+        <v>104651.63101649008</v>
       </c>
       <c r="P26" s="18">
         <f ca="1">O26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>109158.54695011124</v>
+        <v>108612.82463511954</v>
       </c>
       <c r="Q26" s="18">
         <f ca="1">P26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>110647.77420960712</v>
+        <v>112981.30381217977</v>
       </c>
       <c r="R26" s="18">
         <f ca="1">Q26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>112003.94891521531</v>
+        <v>116028.42611101379</v>
       </c>
       <c r="S26" s="18">
         <f ca="1">R26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>114903.435453745</v>
+        <v>118179.33012091064</v>
       </c>
       <c r="T26" s="18">
         <f ca="1">S26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>118130.20540192052</v>
+        <v>119141.66427243096</v>
       </c>
       <c r="U26" s="18">
         <f ca="1">T26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>119502.66173874169</v>
+        <v>120801.76881367294</v>
       </c>
       <c r="V26" s="18">
         <f ca="1">U26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>120863.82896975271</v>
+        <v>122039.51298461686</v>
       </c>
       <c r="W26" s="18">
         <f ca="1">V26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>125271.28221535066</v>
+        <v>124847.39993126283</v>
       </c>
       <c r="X26" s="18">
         <f ca="1">W26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>127756.51363418635</v>
+        <v>128466.31484021473</v>
       </c>
       <c r="Y26" s="18">
         <f ca="1">X26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>130420.38624101234</v>
+        <v>131130.45873131388</v>
       </c>
       <c r="Z26" s="18">
         <f ca="1">Y26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>135854.09253632082</v>
+        <v>132406.42580191785</v>
       </c>
       <c r="AA26" s="18">
         <f ca="1">Z26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>141290.65427117149</v>
+        <v>135053.34499497095</v>
       </c>
       <c r="AB26" s="18">
         <f ca="1">AA26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>143560.02404636386</v>
+        <v>138941.89238125048</v>
       </c>
       <c r="AC26" s="18">
         <f ca="1">AB26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>148171.24633451071</v>
+        <v>141354.2157183431</v>
       </c>
       <c r="AD26" s="18">
         <f ca="1">AC26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>153876.49713643405</v>
+        <v>146333.16422799302</v>
       </c>
       <c r="AE26" s="18">
         <f ca="1">AD26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>158122.50427281138</v>
+        <v>150647.60972168026</v>
       </c>
       <c r="AF26" s="18">
         <f ca="1">AE26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>160764.43415370307</v>
+        <v>152669.74106389593</v>
       </c>
       <c r="AG26" s="18">
         <f ca="1">AF26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>165155.37026151843</v>
+        <v>158447.69969337163</v>
       </c>
       <c r="AH26" s="18">
         <f ca="1">AG26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>167991.0728858331</v>
+        <v>163565.02230690693</v>
       </c>
       <c r="AI26" s="18">
         <f ca="1">AH26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>172204.82995021692</v>
+        <v>169122.7576858105</v>
       </c>
       <c r="AJ26" s="18">
         <f ca="1">AI26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>178283.49718626463</v>
+        <v>173830.01074318378</v>
       </c>
       <c r="AK26" s="18">
         <f ca="1">AJ26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>181835.08496352541</v>
+        <v>179836.38493814034</v>
       </c>
       <c r="AL26" s="18">
         <f ca="1">AK26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>184495.71251796521</v>
+        <v>185550.80483878514</v>
       </c>
       <c r="AM26" s="18">
         <f ca="1">AL26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>189800.04948000135</v>
+        <v>187624.2815033092</v>
       </c>
       <c r="AN26" s="18">
         <f ca="1">AM26*_xll.VosePERT($D$26,$E$26,$F$26)</f>
-        <v>197437.97787424718</v>
+        <v>192239.37953189807</v>
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.35">
@@ -2388,7 +2369,7 @@
       </c>
       <c r="G27" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C27)+_xll.VosePERT($D27,$E27,$F27)</f>
-        <v>3.5111050240499257E-2</v>
+        <v>3.6995503251849506E-2</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -2398,123 +2379,123 @@
       </c>
       <c r="K27" s="18">
         <f ca="1">K26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3346.6287408531107</v>
+        <v>3260.4638761491146</v>
       </c>
       <c r="L27" s="18">
         <f ca="1">L26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3371.4698154191119</v>
+        <v>3428.3288581631173</v>
       </c>
       <c r="M27" s="18">
         <f ca="1">M26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3633.7225618133662</v>
+        <v>3459.6948487463178</v>
       </c>
       <c r="N27" s="18">
         <f ca="1">N26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3704.2679562608264</v>
+        <v>3623.0186616368642</v>
       </c>
       <c r="O27" s="18">
         <f ca="1">O26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3694.5374944408945</v>
+        <v>3977.3331632924837</v>
       </c>
       <c r="P27" s="18">
         <f ca="1">P26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3804.7070229211399</v>
+        <v>3964.0821488513675</v>
       </c>
       <c r="Q27" s="18">
         <f ca="1">Q26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4116.4522365157191</v>
+        <v>4102.1548460221302</v>
       </c>
       <c r="R27" s="18">
         <f ca="1">R26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>3987.5898576411473</v>
+        <v>4223.8634434822852</v>
       </c>
       <c r="S27" s="18">
         <f ca="1">S26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4182.0686510354535</v>
+        <v>4298.5681804003871</v>
       </c>
       <c r="T27" s="18">
         <f ca="1">T26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4203.6170444456575</v>
+        <v>4130.1245135030349</v>
       </c>
       <c r="U27" s="18">
         <f ca="1">U26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4131.6922263646857</v>
+        <v>4234.8648252200137</v>
       </c>
       <c r="V27" s="18">
         <f ca="1">V26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4147.0466318960425</v>
+        <v>4154.4523471884568</v>
       </c>
       <c r="W27" s="18">
         <f ca="1">W26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4468.2467843295617</v>
+        <v>4499.087775402184</v>
       </c>
       <c r="X27" s="18">
         <f ca="1">X26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4763.1477787170379</v>
+        <v>4576.2548296515888</v>
       </c>
       <c r="Y27" s="18">
         <f ca="1">Y26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4623.3941629844776</v>
+        <v>4501.0668390147594</v>
       </c>
       <c r="Z27" s="18">
         <f ca="1">Z26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5078.2748697250545</v>
+        <v>4807.0458470811354</v>
       </c>
       <c r="AA27" s="18">
         <f ca="1">AA26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>4727.0336113029698</v>
+        <v>4511.4685354944522</v>
       </c>
       <c r="AB27" s="18">
         <f ca="1">AB26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5360.2432236082677</v>
+        <v>4947.963936162294</v>
       </c>
       <c r="AC27" s="18">
         <f ca="1">AC26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5019.3954672466498</v>
+        <v>4910.2884999970647</v>
       </c>
       <c r="AD27" s="18">
         <f ca="1">AD26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5835.4621430968728</v>
+        <v>5234.2884119119881</v>
       </c>
       <c r="AE27" s="18">
         <f ca="1">AE26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5240.2933596399134</v>
+        <v>5328.7369027715695</v>
       </c>
       <c r="AF27" s="18">
         <f ca="1">AF26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>6014.0739471311317</v>
+        <v>5701.5419335949309</v>
       </c>
       <c r="AG27" s="18">
         <f ca="1">AG26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5760.6671258495317</v>
+        <v>5894.9915260138732</v>
       </c>
       <c r="AH27" s="18">
         <f ca="1">AH26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5843.4325132368931</v>
+        <v>5871.7790816756515</v>
       </c>
       <c r="AI27" s="18">
         <f ca="1">AI26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>6426.6550918417433</v>
+        <v>6240.9766296206335</v>
       </c>
       <c r="AJ27" s="18">
         <f ca="1">AJ26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>5970.4389311925715</v>
+        <v>6351.8337179818609</v>
       </c>
       <c r="AK27" s="18">
         <f ca="1">AK26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>6358.1956147461733</v>
+        <v>6246.2668279160716</v>
       </c>
       <c r="AL27" s="18">
         <f ca="1">AL26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>6812.2162085597683</v>
+        <v>6980.0820924267628</v>
       </c>
       <c r="AM27" s="18">
         <f ca="1">AM26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>7047.7336209817777</v>
+        <v>6636.0941860676012</v>
       </c>
       <c r="AN27" s="18">
         <f ca="1">AN26*_xll.VosePERT($D$27,$E$27,$F$27)</f>
-        <v>7196.9080491025788</v>
+        <v>7143.7643954751138</v>
       </c>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.35">
@@ -2537,7 +2518,7 @@
       </c>
       <c r="G28" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C28)+_xll.VosePERT($D28,$E28,$F28)</f>
-        <v>70.818483563082836</v>
+        <v>71.319970060948435</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -2547,123 +2528,123 @@
       </c>
       <c r="K28" s="19">
         <f ca="1">K27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>235175.77947962156</v>
+        <v>208694.52429677549</v>
       </c>
       <c r="L28" s="19">
         <f ca="1">L27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>294294.48184331798</v>
+        <v>233392.97988126223</v>
       </c>
       <c r="M28" s="19">
         <f ca="1">M27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>274232.51710139739</v>
+        <v>268210.05973074678</v>
       </c>
       <c r="N28" s="19">
         <f ca="1">N27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>237223.19219509061</v>
+        <v>272653.76645487396</v>
       </c>
       <c r="O28" s="19">
         <f ca="1">O27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>259377.9492804039</v>
+        <v>298385.57772644982</v>
       </c>
       <c r="P28" s="19">
         <f ca="1">P27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>237202.00386081479</v>
+        <v>294203.97832707124</v>
       </c>
       <c r="Q28" s="19">
         <f ca="1">Q27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>291999.92753625178</v>
+        <v>320231.52925540274</v>
       </c>
       <c r="R28" s="19">
         <f ca="1">R27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>329008.5460705703</v>
+        <v>262385.35597936407</v>
       </c>
       <c r="S28" s="19">
         <f ca="1">S27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>257937.0231331875</v>
+        <v>289043.73879171087</v>
       </c>
       <c r="T28" s="19">
         <f ca="1">T27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>308847.37626703019</v>
+        <v>368885.12635835644</v>
       </c>
       <c r="U28" s="19">
         <f ca="1">U27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>327572.09241667972</v>
+        <v>308229.15466684237</v>
       </c>
       <c r="V28" s="19">
         <f ca="1">V27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>268510.69871327508</v>
+        <v>312777.86835506657</v>
       </c>
       <c r="W28" s="19">
         <f ca="1">W27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>298698.5631298839</v>
+        <v>318027.68490393163</v>
       </c>
       <c r="X28" s="19">
         <f ca="1">X27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>326656.20007510256</v>
+        <v>331029.22866579168</v>
       </c>
       <c r="Y28" s="19">
         <f ca="1">Y27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>364213.79239398765</v>
+        <v>332698.55626836518</v>
       </c>
       <c r="Z28" s="19">
         <f ca="1">Z27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>336048.5069922785</v>
+        <v>303984.09294082411</v>
       </c>
       <c r="AA28" s="19">
         <f ca="1">AA27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>351733.6703859666</v>
+        <v>327852.85571694269</v>
       </c>
       <c r="AB28" s="19">
         <f ca="1">AB27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>389472.83778299141</v>
+        <v>351947.14379073732</v>
       </c>
       <c r="AC28" s="19">
         <f ca="1">AC27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>342137.5185267349</v>
+        <v>301069.70887592959</v>
       </c>
       <c r="AD28" s="19">
         <f ca="1">AD27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>395644.63948982634</v>
+        <v>355356.87696929881</v>
       </c>
       <c r="AE28" s="19">
         <f ca="1">AE27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>348969.94872860442</v>
+        <v>366724.13070618658</v>
       </c>
       <c r="AF28" s="19">
         <f ca="1">AF27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>466324.82582307304</v>
+        <v>401205.88165523618</v>
       </c>
       <c r="AG28" s="19">
         <f ca="1">AG27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>435101.90326961299</v>
+        <v>439928.60672739916</v>
       </c>
       <c r="AH28" s="19">
         <f ca="1">AH27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>370700.62992068724</v>
+        <v>401213.97846283205</v>
       </c>
       <c r="AI28" s="19">
         <f ca="1">AI27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>464929.35638542537</v>
+        <v>449472.9902134001</v>
       </c>
       <c r="AJ28" s="19">
         <f ca="1">AJ27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>479364.43057637365</v>
+        <v>506647.8948463368</v>
       </c>
       <c r="AK28" s="19">
         <f ca="1">AK27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>497811.21108603274</v>
+        <v>470464.58714442886</v>
       </c>
       <c r="AL28" s="19">
         <f ca="1">AL27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>445084.82901122957</v>
+        <v>527204.87986620644</v>
       </c>
       <c r="AM28" s="19">
         <f ca="1">AM27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>495873.62252926524</v>
+        <v>586258.18841475714</v>
       </c>
       <c r="AN28" s="19">
         <f ca="1">AN27*_xll.VosePERT($D$28,$E$28,$F$29)</f>
-        <v>539642.96058905101</v>
+        <v>531666.95383262041</v>
       </c>
       <c r="AO28" s="20"/>
     </row>
@@ -2685,7 +2666,7 @@
       </c>
       <c r="G29" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C29)+_xll.VosePERT($D29,$E29,$F29)</f>
-        <v>94.888307826995273</v>
+        <v>93.853263097171393</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -2696,123 +2677,123 @@
       </c>
       <c r="K29" s="21">
         <f ca="1">K28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>206425.14986527289</v>
+        <v>198440.21424047119</v>
       </c>
       <c r="L29" s="21">
         <f ca="1">L28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>264495.7052944852</v>
+        <v>225095.02834062491</v>
       </c>
       <c r="M29" s="21">
         <f ca="1">M28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>235352.8824151404</v>
+        <v>250307.10026596513</v>
       </c>
       <c r="N29" s="21">
         <f ca="1">N28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>213751.26116151761</v>
+        <v>234520.85294798992</v>
       </c>
       <c r="O29" s="21">
         <f ca="1">O28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>222206.02112203182</v>
+        <v>260335.45798400426</v>
       </c>
       <c r="P29" s="21">
         <f ca="1">P28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>202523.42368521131</v>
+        <v>253139.84408180826</v>
       </c>
       <c r="Q29" s="21">
         <f ca="1">Q28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>250540.773921518</v>
+        <v>282319.78066405491</v>
       </c>
       <c r="R29" s="21">
         <f ca="1">R28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>281484.70679616043</v>
+        <v>242861.445961844</v>
       </c>
       <c r="S29" s="21">
         <f ca="1">S28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>215033.6385860095</v>
+        <v>266077.073069092</v>
       </c>
       <c r="T29" s="21">
         <f ca="1">T28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>277490.01405906287</v>
+        <v>324285.05967915989</v>
       </c>
       <c r="U29" s="21">
         <f ca="1">U28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>294230.26614389394</v>
+        <v>275820.54275769764</v>
       </c>
       <c r="V29" s="21">
         <f ca="1">V28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>258078.77731198777</v>
+        <v>274972.47111336834</v>
       </c>
       <c r="W29" s="21">
         <f ca="1">W28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>269752.52894731658</v>
+        <v>270723.64692777733</v>
       </c>
       <c r="X29" s="21">
         <f ca="1">X28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>309053.80627150618</v>
+        <v>311008.47320633364</v>
       </c>
       <c r="Y29" s="21">
         <f ca="1">Y28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>311356.47657592769</v>
+        <v>319914.85161325929</v>
       </c>
       <c r="Z29" s="21">
         <f ca="1">Z28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>331279.66418832762</v>
+        <v>280137.78733766964</v>
       </c>
       <c r="AA29" s="21">
         <f ca="1">AA28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>301918.53577924304</v>
+        <v>294916.32560852368</v>
       </c>
       <c r="AB29" s="21">
         <f ca="1">AB28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>367778.85697140021</v>
+        <v>289339.83694188064</v>
       </c>
       <c r="AC29" s="21">
         <f ca="1">AC28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>303925.72968914645</v>
+        <v>269500.73224238749</v>
       </c>
       <c r="AD29" s="21">
         <f ca="1">AD28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>331672.97725940822</v>
+        <v>336752.20277657127</v>
       </c>
       <c r="AE29" s="21">
         <f ca="1">AE28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>328032.60945037979</v>
+        <v>339754.13543219282</v>
       </c>
       <c r="AF29" s="21">
         <f ca="1">AF28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>407593.29903076903</v>
+        <v>339764.75968517544</v>
       </c>
       <c r="AG29" s="21">
         <f ca="1">AG28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>405120.66399560496</v>
+        <v>413793.57751743763</v>
       </c>
       <c r="AH29" s="21">
         <f ca="1">AH28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>339022.23531261715</v>
+        <v>347170.8426920604</v>
       </c>
       <c r="AI29" s="21">
         <f ca="1">AI28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>443983.23025542666</v>
+        <v>427085.63296203315</v>
       </c>
       <c r="AJ29" s="21">
         <f ca="1">AJ28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>464010.8932053679</v>
+        <v>417851.29060837539</v>
       </c>
       <c r="AK29" s="21">
         <f ca="1">AK28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>461073.59881891345</v>
+        <v>438447.0190748038</v>
       </c>
       <c r="AL29" s="21">
         <f ca="1">AL28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>424407.72706339194</v>
+        <v>477066.47194146214</v>
       </c>
       <c r="AM29" s="21">
         <f ca="1">AM28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>438150.12452886603</v>
+        <v>523033.88487319613</v>
       </c>
       <c r="AN29" s="21">
         <f ca="1">AN28*_xll.VosePERT($D$11,$E$11,$F$11)/100</f>
-        <v>511988.81827633647</v>
+        <v>477702.37163839408</v>
       </c>
       <c r="AO29" s="20"/>
     </row>
@@ -2837,7 +2818,7 @@
       </c>
       <c r="G30" s="8">
         <f ca="1">_xll.VoseInput(TEMP!C30)+_xll.VosePERT($D30,$E30,$F30)</f>
-        <v>2.7579601363029751E-2</v>
+        <v>2.5178179257271727E-2</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
@@ -2848,123 +2829,123 @@
       </c>
       <c r="K30" s="19">
         <f ca="1">K27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>2586.2433588729218</v>
+        <v>2675.3802569504205</v>
       </c>
       <c r="L30" s="19">
         <f ca="1">L27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>2600.9265538633549</v>
+        <v>2651.2322272099568</v>
       </c>
       <c r="M30" s="19">
         <f ca="1">M27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>2898.9011345803351</v>
+        <v>2680.5158250006134</v>
       </c>
       <c r="N30" s="19">
         <f ca="1">N27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>2825.847093017941</v>
+        <v>2989.0453418156103</v>
       </c>
       <c r="O30" s="19">
         <f ca="1">O27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>2902.0102727775297</v>
+        <v>3115.2636010066349</v>
       </c>
       <c r="P30" s="19">
         <f ca="1">P27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3125.4579712870382</v>
+        <v>2916.9060650689999</v>
       </c>
       <c r="Q30" s="19">
         <f ca="1">Q27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>2998.6362298960039</v>
+        <v>3077.8460334141237</v>
       </c>
       <c r="R30" s="19">
         <f ca="1">R27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3111.3475745302635</v>
+        <v>3193.6280994443118</v>
       </c>
       <c r="S30" s="19">
         <f ca="1">S27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3362.5164029980269</v>
+        <v>3537.557627000951</v>
       </c>
       <c r="T30" s="19">
         <f ca="1">T27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3333.0413559962758</v>
+        <v>3154.0867348526176</v>
       </c>
       <c r="U30" s="19">
         <f ca="1">U27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3420.2304540966188</v>
+        <v>3267.3410008085339</v>
       </c>
       <c r="V30" s="19">
         <f ca="1">V27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3304.4198242779803</v>
+        <v>3214.5640517960187</v>
       </c>
       <c r="W30" s="19">
         <f ca="1">W27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3230.425579986133</v>
+        <v>3578.1193393948224</v>
       </c>
       <c r="X30" s="19">
         <f ca="1">X27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3848.2475657314217</v>
+        <v>3688.5152257566147</v>
       </c>
       <c r="Y30" s="19">
         <f ca="1">Y27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3498.4619038354522</v>
+        <v>3540.3984751685753</v>
       </c>
       <c r="Z30" s="19">
         <f ca="1">Z27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4055.2028723171625</v>
+        <v>3937.3143538062222</v>
       </c>
       <c r="AA30" s="19">
         <f ca="1">AA27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3690.006490066658</v>
+        <v>3292.6395148627312</v>
       </c>
       <c r="AB30" s="19">
         <f ca="1">AB27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4178.8862254166934</v>
+        <v>3804.901744293004</v>
       </c>
       <c r="AC30" s="19">
         <f ca="1">AC27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3740.410558575159</v>
+        <v>3714.7347336165508</v>
       </c>
       <c r="AD30" s="19">
         <f ca="1">AD27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4607.0184022786698</v>
+        <v>4313.8108806901382</v>
       </c>
       <c r="AE30" s="19">
         <f ca="1">AE27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>3838.3993424015148</v>
+        <v>4097.0262145944771</v>
       </c>
       <c r="AF30" s="19">
         <f ca="1">AF27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4751.6752350668467</v>
+        <v>4552.9459806591731</v>
       </c>
       <c r="AG30" s="19">
         <f ca="1">AG27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4662.6193958464855</v>
+        <v>4633.678560547758</v>
       </c>
       <c r="AH30" s="19">
         <f ca="1">AH27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4267.2771741066299</v>
+        <v>4652.7547126497393</v>
       </c>
       <c r="AI30" s="19">
         <f ca="1">AI27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4955.0846542899717</v>
+        <v>5209.0736680752025</v>
       </c>
       <c r="AJ30" s="19">
         <f ca="1">AJ27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>4659.879970764644</v>
+        <v>5199.3756225702791</v>
       </c>
       <c r="AK30" s="19">
         <f ca="1">AK27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>5261.0046896200347</v>
+        <v>4724.3447289978212</v>
       </c>
       <c r="AL30" s="19">
         <f ca="1">AL27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>5325.7043621127013</v>
+        <v>5918.7897129817629</v>
       </c>
       <c r="AM30" s="19">
         <f ca="1">AM27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>5542.5086382548407</v>
+        <v>5098.9786561044884</v>
       </c>
       <c r="AN30" s="19">
         <f ca="1">AN27*_xll.VosePERT($D30,$E30,$F30)*30</f>
-        <v>5686.1791531729004</v>
+        <v>5318.6550280792171</v>
       </c>
       <c r="AO30" s="20"/>
     </row>
@@ -2983,127 +2964,127 @@
       </c>
       <c r="K31" s="21">
         <f t="shared" ref="K31" ca="1" si="2">K29-K30</f>
-        <v>203838.90650639997</v>
+        <v>195764.83398352077</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" ref="L31:AN31" ca="1" si="3">L29-L30</f>
-        <v>261894.77874062184</v>
+        <v>222443.79611341495</v>
       </c>
       <c r="M31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>232453.98128056005</v>
+        <v>247626.58444096451</v>
       </c>
       <c r="N31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>210925.41406849967</v>
+        <v>231531.80760617432</v>
       </c>
       <c r="O31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>219304.01084925429</v>
+        <v>257220.19438299761</v>
       </c>
       <c r="P31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>199397.96571392426</v>
+        <v>250222.93801673927</v>
       </c>
       <c r="Q31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>247542.13769162199</v>
+        <v>279241.93463064078</v>
       </c>
       <c r="R31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>278373.35922163015</v>
+        <v>239667.81786239968</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>211671.12218301147</v>
+        <v>262539.51544209104</v>
       </c>
       <c r="T31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>274156.9727030666</v>
+        <v>321130.97294430726</v>
       </c>
       <c r="U31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>290810.03568979731</v>
+        <v>272553.20175688912</v>
       </c>
       <c r="V31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>254774.35748770979</v>
+        <v>271757.9070615723</v>
       </c>
       <c r="W31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>266522.10336733045</v>
+        <v>267145.52758838248</v>
       </c>
       <c r="X31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>305205.55870577478</v>
+        <v>307319.95798057702</v>
       </c>
       <c r="Y31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>307858.01467209222</v>
+        <v>316374.45313809073</v>
       </c>
       <c r="Z31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>327224.46131601045</v>
+        <v>276200.47298386344</v>
       </c>
       <c r="AA31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>298228.5292891764</v>
+        <v>291623.68609366094</v>
       </c>
       <c r="AB31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>363599.97074598353</v>
+        <v>285534.93519758765</v>
       </c>
       <c r="AC31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>300185.31913057127</v>
+        <v>265785.99750877096</v>
       </c>
       <c r="AD31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>327065.95885712956</v>
+        <v>332438.39189588116</v>
       </c>
       <c r="AE31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>324194.21010797826</v>
+        <v>335657.10921759834</v>
       </c>
       <c r="AF31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>402841.62379570218</v>
+        <v>335211.81370451627</v>
       </c>
       <c r="AG31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>400458.04459975846</v>
+        <v>409159.89895688987</v>
       </c>
       <c r="AH31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>334754.95813851053</v>
+        <v>342518.08797941066</v>
       </c>
       <c r="AI31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>439028.14560113667</v>
+        <v>421876.55929395795</v>
       </c>
       <c r="AJ31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>459351.01323460328</v>
+        <v>412651.91498580511</v>
       </c>
       <c r="AK31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>455812.5941292934</v>
+        <v>433722.67434580601</v>
       </c>
       <c r="AL31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>419082.02270127926</v>
+        <v>471147.68222848035</v>
       </c>
       <c r="AM31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>432607.6158906112</v>
+        <v>517934.90621709166</v>
       </c>
       <c r="AN31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>506302.63912316359</v>
+        <v>472383.71661031485</v>
       </c>
       <c r="AO31" s="19">
         <f ca="1">_xll.VoseOutput()+J31+NPV(0.03,K31:AN31)</f>
-        <v>6044233.2412529262</v>
+        <v>6067849.4293378526</v>
       </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.35">
@@ -3128,7 +3109,7 @@
       </c>
       <c r="G33" s="8">
         <f ca="1">_xll.VosePERT(D33,E33,F33)</f>
-        <v>2.0484892684365902E-2</v>
+        <v>1.4854442601923016E-2</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
